--- a/data/Datasheets/Divisions.xlsx
+++ b/data/Datasheets/Divisions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Work/Workspace/TLU_Project_ScheduleManager/data/Datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB393FE2-DE40-0D40-BCAC-4F8951788277}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A1E8C6-A934-BC43-9F3C-4D6C1DA0A979}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="20020" xr2:uid="{F4FEF127-2C8B-E94B-90D5-22033197544F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Âm nhạc</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Đại cương</t>
   </si>
 </sst>
 </file>
@@ -429,13 +435,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDCEE57-BEDB-1B45-8EF7-AAB499F595CB}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -501,6 +510,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
